--- a/src/test/resources/excelFiles/rateShopperTestData.xlsx
+++ b/src/test/resources/excelFiles/rateShopperTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sameer\git\RateShopper\src\test\resources\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBFA402-33A9-4F0F-A4B8-27F3137E19D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF6AD7B-94BB-43B8-BDC6-A3ED64BD00E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D1B72883-4199-4EB1-9BEE-D1D10B69753A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="56">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>To check whether the user can successfully login</t>
   </si>
   <si>
@@ -157,12 +154,6 @@
     <t>Today</t>
   </si>
   <si>
-    <t>450000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
     <t>Browser</t>
   </si>
   <si>
@@ -196,9 +187,6 @@
     <t>fail</t>
   </si>
   <si>
-    <t>333000</t>
-  </si>
-  <si>
     <t>kancharla.p@axisrooms.com</t>
   </si>
   <si>
@@ -206,6 +194,18 @@
   </si>
   <si>
     <t>Casino hotel, Cochin, India</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>7 Days</t>
+  </si>
+  <si>
+    <t>14 Days</t>
+  </si>
+  <si>
+    <t>30 Days</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -676,6 +676,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -994,7 +995,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1009,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
@@ -1023,189 +1024,189 @@
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1219,8 +1220,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9E35AE-6FC3-4EB7-AA4A-2B4834DB2A19}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1239,63 +1241,63 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="25" t="s">
+      <c r="L1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="25" t="s">
-        <v>34</v>
-      </c>
       <c r="M1" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N1" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -1309,1755 +1311,1733 @@
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M3" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L5" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L6" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M6" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="43"/>
       <c r="I8" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M8" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N8" s="40"/>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L9" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N9" s="55"/>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L10" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M10" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N10" s="55"/>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L11" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M11" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N11" s="55"/>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L12" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M12" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N12" s="55"/>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L13" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M13" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N13" s="55"/>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" s="43"/>
       <c r="I14" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J14" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L14" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M14" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N14" s="55"/>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L15" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M15" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N15" s="55"/>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L16" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M16" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N16" s="55"/>
     </row>
     <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L17" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M17" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N17" s="55"/>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G18" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H18" s="43"/>
       <c r="I18" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J18" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L18" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M18" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N18" s="55"/>
     </row>
     <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="27"/>
       <c r="I19" s="36" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K19" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L19" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M19" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="N19" s="51" t="s">
-        <v>46</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="N19" s="51"/>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="32"/>
-      <c r="I20" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>13</v>
+      <c r="I20" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>5</v>
       </c>
       <c r="K20" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="50" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="L20" s="57" t="s">
+        <v>53</v>
       </c>
       <c r="M20" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="N20" s="34" t="s">
-        <v>52</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="N20" s="34"/>
     </row>
     <row r="21" spans="1:14" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="32"/>
-      <c r="I21" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>28</v>
+      <c r="I21" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" s="50" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="L21" s="57" t="s">
+        <v>54</v>
       </c>
       <c r="M21" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="N21" s="34" t="s">
-        <v>40</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="N21" s="34"/>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="20"/>
-      <c r="I22" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>29</v>
+      <c r="I22" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>5</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="50" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="L22" s="57" t="s">
+        <v>55</v>
       </c>
       <c r="M22" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="N22" s="22" t="s">
-        <v>46</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="N22" s="22"/>
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G23" s="30"/>
       <c r="H23" s="32"/>
-      <c r="I23" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>30</v>
+      <c r="I23" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>5</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L23" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M23" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="N23" s="34" t="s">
-        <v>52</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="N23" s="34"/>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>6</v>
+      <c r="I24" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>5</v>
       </c>
       <c r="K24" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L24" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M24" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="N24" s="22" t="s">
-        <v>46</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="N24" s="22"/>
     </row>
     <row r="25" spans="1:14" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G25" s="30"/>
       <c r="H25" s="32"/>
       <c r="I25" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>5</v>
       </c>
       <c r="K25" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L25" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M25" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="N25" s="34" t="s">
-        <v>39</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="N25" s="34"/>
     </row>
     <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G26" s="30"/>
       <c r="H26" s="32"/>
       <c r="I26" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J26" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L26" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M26" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="N26" s="34" t="s">
-        <v>52</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="N26" s="34"/>
     </row>
     <row r="27" spans="1:14" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="20"/>
       <c r="I27" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L27" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M27" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>46</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="N27" s="22"/>
     </row>
     <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G28" s="30"/>
       <c r="H28" s="32"/>
       <c r="I28" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K28" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L28" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M28" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="N28" s="34" t="s">
-        <v>52</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K29" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L29" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M29" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="N29" s="22" t="s">
-        <v>46</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="N29" s="22"/>
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L30" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M30" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N30" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K31" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L31" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M31" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N31" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K32" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L32" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M32" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N32" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K33" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L33" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M33" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N33" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L34" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M34" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N34" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K35" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L35" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M35" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N35" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L36" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M36" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N36" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L37" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M37" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N37" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K38" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L38" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M38" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N38" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L39" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M39" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N39" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L40" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M40" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N40" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K41" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L41" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M41" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N41" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F42" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K42" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L42" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M42" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N42" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J43" s="47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K43" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L43" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M43" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N43" s="53" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F44" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G44" s="44"/>
       <c r="H44" s="45"/>
       <c r="I44" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J44" s="47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K44" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L44" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M44" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N44" s="46"/>
     </row>
     <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="20"/>
       <c r="I45" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K45" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L45" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M45" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N45" s="8"/>
     </row>
     <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="20"/>
       <c r="I46" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K46" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L46" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M46" s="51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N46" s="8"/>
     </row>
@@ -3088,16 +3068,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3109,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3121,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3133,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -3145,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3157,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -3169,7 +3149,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -3181,7 +3161,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -3193,7 +3173,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -3205,7 +3185,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -3217,7 +3197,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -3229,7 +3209,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -3241,7 +3221,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3253,7 +3233,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -3265,7 +3245,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -3277,7 +3257,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3289,7 +3269,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3301,7 +3281,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -3313,7 +3293,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -3325,7 +3305,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -3337,7 +3317,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -3349,7 +3329,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -3361,7 +3341,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -3373,7 +3353,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -3385,7 +3365,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -3397,7 +3377,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
